--- a/Plan/Inventario y Ventas (SCRUM).xlsx
+++ b/Plan/Inventario y Ventas (SCRUM).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\FacturaDigital\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="BACKLOG + STORIES" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>TOTAL</t>
   </si>
@@ -149,30 +149,6 @@
     <t>pts</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Formación (F)</t>
-  </si>
-  <si>
-    <t>Proyectos/Ideas (I)</t>
-  </si>
-  <si>
-    <t>Trabajo (T)</t>
-  </si>
-  <si>
-    <t>Personal (P)</t>
-  </si>
-  <si>
     <t>Priority            A-B-C</t>
   </si>
   <si>
@@ -180,9 +156,6 @@
   </si>
   <si>
     <t>Monthly Speed Points</t>
-  </si>
-  <si>
-    <t>p</t>
   </si>
   <si>
     <t>cant.</t>
@@ -261,6 +234,30 @@
   </si>
   <si>
     <t xml:space="preserve">Ventana Venta de producto </t>
+  </si>
+  <si>
+    <t>(CH)</t>
+  </si>
+  <si>
+    <t>(JR)</t>
+  </si>
+  <si>
+    <t>(JL)</t>
+  </si>
+  <si>
+    <t>(O)</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>BASE DATOS</t>
+  </si>
+  <si>
+    <t>Crear BD + tabla producto + tabla factura</t>
   </si>
 </sst>
 </file>
@@ -1015,25 +1012,19 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="16" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="24" fillId="15" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="14" borderId="12" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="14" borderId="15" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="6" applyAlignment="1">
@@ -1042,19 +1033,25 @@
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="14" borderId="12" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="16" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="24" fillId="15" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="14" borderId="15" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1067,7 +1064,155 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightDown">
+          <fgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF008000"/>
@@ -1489,46 +1634,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1803,10 +1908,10 @@
                 <c:ptCount val="2"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>22</c:v>
+                    <c:v>29</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>22</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1827,10 +1932,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2006,99 +2111,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-20</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-37</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-37</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-37</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-37</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-37</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-37</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-37</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-37</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-37</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-37</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-37</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-37</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-37</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-37</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-37</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SPRINT Points'!$E$103:$AC$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -2134,14 +2161,92 @@
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPRINT Points'!$E$103:$AC$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2713,7 +2818,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.333333333333333</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3041,30 +3146,30 @@
                 <c:ptCount val="4"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>11</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>12</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>14</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Formación (F)</c:v>
+                    <c:v>(CH)</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Proyectos/Ideas (I)</c:v>
+                    <c:v>(JL)</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Trabajo (T)</c:v>
+                    <c:v>(JR)</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Personal (P)</c:v>
+                    <c:v>(O)</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3077,16 +3182,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5971,9 +6076,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5993,7 +6098,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>18</v>
@@ -6002,13 +6107,13 @@
         <v>17</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G1" s="74" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J1" s="76" t="s">
         <v>25</v>
@@ -6017,16 +6122,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B2" s="72">
         <v>2</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>19</v>
@@ -6036,7 +6141,7 @@
       </c>
       <c r="G2" s="75">
         <f>VLOOKUP(B2,'SPRINT Points'!$A$4:$E$100,5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>19</v>
@@ -6047,16 +6152,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B3" s="72">
         <v>3</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>21</v>
@@ -6066,7 +6171,7 @@
       </c>
       <c r="G3" s="75">
         <f>VLOOKUP(B3,'SPRINT Points'!$A$4:$E$100,5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="32" t="s">
         <v>20</v>
@@ -6076,17 +6181,15 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
-        <v>35</v>
-      </c>
+      <c r="A4" s="37"/>
       <c r="B4" s="72">
         <v>4</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>21</v>
@@ -6096,7 +6199,7 @@
       </c>
       <c r="G4" s="75">
         <f>VLOOKUP(B4,'SPRINT Points'!$A$4:$E$100,5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="32" t="s">
         <v>21</v>
@@ -6106,17 +6209,15 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>36</v>
-      </c>
+      <c r="A5" s="37"/>
       <c r="B5" s="72">
         <v>5</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>20</v>
@@ -6126,21 +6227,19 @@
       </c>
       <c r="G5" s="75">
         <f>VLOOKUP(B5,'SPRINT Points'!$A$4:$E$100,5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
-        <v>33</v>
-      </c>
+      <c r="A6" s="37"/>
       <c r="B6" s="72">
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D6" s="71" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>21</v>
@@ -6150,131 +6249,122 @@
       </c>
       <c r="G6" s="75">
         <f>VLOOKUP(B6,'SPRINT Points'!$A$4:$E$100,5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="76" t="s">
         <v>27</v>
       </c>
       <c r="K6" s="78"/>
       <c r="L6" s="32" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="72"/>
-      <c r="E7" s="17"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="72">
+        <v>7</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="44">
+        <v>1</v>
+      </c>
       <c r="G7" s="75"/>
       <c r="J7" s="25"/>
       <c r="K7" s="18" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="L7" s="69">
-        <f>COUNTIF(A:A,"F")</f>
-        <v>11</v>
+        <f>COUNTIF(A:A,"CH")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
-        <v>33</v>
-      </c>
+      <c r="A8" s="37"/>
       <c r="B8" s="72"/>
       <c r="E8" s="17"/>
       <c r="G8" s="75"/>
       <c r="J8" s="23"/>
       <c r="K8" s="19" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="L8" s="18">
-        <f>COUNTIF(A:A,"I")</f>
-        <v>10</v>
+        <f>COUNTIF(A:A,"JL")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
-        <v>33</v>
-      </c>
+      <c r="A9" s="37"/>
       <c r="B9" s="72"/>
       <c r="E9" s="17"/>
       <c r="G9" s="75"/>
       <c r="J9" s="24"/>
       <c r="K9" s="18" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="L9" s="18">
-        <f>COUNTIF(A:A,"T")</f>
-        <v>12</v>
+        <f>COUNTIF(A:A,"JR")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
-        <v>33</v>
-      </c>
+      <c r="A10" s="37"/>
       <c r="B10" s="72"/>
       <c r="E10" s="17"/>
       <c r="G10" s="75"/>
       <c r="J10" s="22"/>
       <c r="K10" s="18" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="L10" s="18">
-        <f>COUNTIF(A:A,"P")</f>
-        <v>14</v>
+        <f>COUNTIF(A:A,"O")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
-        <v>33</v>
-      </c>
+      <c r="A11" s="37"/>
       <c r="B11" s="72"/>
       <c r="G11" s="75"/>
     </row>
     <row r="12" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
-        <v>33</v>
-      </c>
+      <c r="A12" s="37"/>
       <c r="B12" s="72"/>
       <c r="G12" s="75"/>
     </row>
     <row r="13" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
-        <v>35</v>
-      </c>
+      <c r="A13" s="37"/>
       <c r="B13" s="72"/>
       <c r="E13" s="17"/>
       <c r="G13" s="75"/>
     </row>
     <row r="14" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
-        <v>35</v>
-      </c>
+      <c r="A14" s="37"/>
       <c r="B14" s="72"/>
       <c r="E14" s="17"/>
       <c r="G14" s="75"/>
     </row>
     <row r="15" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
-        <v>35</v>
-      </c>
+      <c r="A15" s="37"/>
       <c r="B15" s="72"/>
       <c r="E15" s="17"/>
       <c r="G15" s="75"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="A16" s="37"/>
       <c r="B16" s="72"/>
       <c r="C16" s="20"/>
       <c r="E16" s="17"/>
       <c r="G16" s="75"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="A17" s="37"/>
       <c r="B17" s="72"/>
       <c r="C17" s="36"/>
       <c r="D17" s="71"/>
@@ -6282,234 +6372,170 @@
       <c r="G17" s="75"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
-        <v>35</v>
-      </c>
+      <c r="A18" s="37"/>
       <c r="B18" s="72"/>
       <c r="E18" s="17"/>
       <c r="G18" s="75"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
-        <v>35</v>
-      </c>
+      <c r="A19" s="37"/>
       <c r="B19" s="72"/>
       <c r="G19" s="75"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
-        <v>35</v>
-      </c>
+      <c r="A20" s="37"/>
       <c r="B20" s="72"/>
       <c r="G20" s="75"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
-        <v>35</v>
-      </c>
+      <c r="A21" s="37"/>
       <c r="B21" s="72"/>
       <c r="G21" s="75"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
-        <v>35</v>
-      </c>
+      <c r="A22" s="37"/>
       <c r="B22" s="72"/>
       <c r="G22" s="75"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
-        <v>35</v>
-      </c>
+      <c r="A23" s="37"/>
       <c r="B23" s="72"/>
       <c r="G23" s="75"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="37" t="s">
-        <v>35</v>
-      </c>
+      <c r="A24" s="37"/>
       <c r="B24" s="72"/>
       <c r="G24" s="75"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="A25" s="37"/>
       <c r="B25" s="72"/>
       <c r="C25" s="36"/>
       <c r="E25" s="17"/>
       <c r="G25" s="75"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
-        <v>36</v>
-      </c>
+      <c r="A26" s="37"/>
       <c r="B26" s="72"/>
       <c r="G26" s="75"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
-        <v>36</v>
-      </c>
+      <c r="A27" s="37"/>
       <c r="B27" s="72"/>
       <c r="G27" s="75"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
-        <v>33</v>
-      </c>
+      <c r="A28" s="37"/>
       <c r="B28" s="72"/>
       <c r="G28" s="75"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
-        <v>33</v>
-      </c>
+      <c r="A29" s="37"/>
       <c r="B29" s="72"/>
       <c r="G29" s="75"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
-        <v>33</v>
-      </c>
+      <c r="A30" s="37"/>
       <c r="B30" s="72"/>
       <c r="G30" s="75"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
-        <v>36</v>
-      </c>
+      <c r="A31" s="37"/>
       <c r="B31" s="72"/>
       <c r="E31" s="17"/>
       <c r="G31" s="75"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="s">
-        <v>36</v>
-      </c>
+      <c r="A32" s="37"/>
       <c r="B32" s="72"/>
       <c r="G32" s="75"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="A33" s="37"/>
       <c r="B33" s="72"/>
       <c r="C33" s="20"/>
       <c r="E33" s="17"/>
       <c r="G33" s="75"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
-        <v>36</v>
-      </c>
+      <c r="A34" s="37"/>
       <c r="B34" s="72"/>
       <c r="G34" s="75"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
-        <v>44</v>
-      </c>
+      <c r="A35" s="37"/>
       <c r="B35" s="72"/>
       <c r="G35" s="75"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
-        <v>36</v>
-      </c>
+      <c r="A36" s="37"/>
       <c r="B36" s="72"/>
       <c r="G36" s="75"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="42" t="s">
-        <v>33</v>
-      </c>
       <c r="B37" s="72"/>
       <c r="G37" s="75"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="37" t="s">
-        <v>36</v>
-      </c>
+      <c r="A38" s="37"/>
       <c r="B38" s="72"/>
       <c r="G38" s="75"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="A39" s="37"/>
       <c r="B39" s="72"/>
       <c r="E39" s="17"/>
       <c r="G39" s="75"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="A40" s="37"/>
       <c r="B40" s="72"/>
       <c r="C40" s="36"/>
       <c r="E40" s="17"/>
       <c r="G40" s="75"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="A41" s="37"/>
       <c r="B41" s="72"/>
       <c r="C41" s="31"/>
       <c r="E41" s="17"/>
       <c r="G41" s="75"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="A42" s="37"/>
       <c r="B42" s="72"/>
       <c r="C42" s="36"/>
       <c r="E42" s="17"/>
       <c r="G42" s="75"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="A43" s="37"/>
       <c r="B43" s="72"/>
       <c r="E43" s="17"/>
       <c r="G43" s="75"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="A44" s="37"/>
       <c r="B44" s="72"/>
       <c r="G44" s="75"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="37" t="s">
-        <v>36</v>
-      </c>
+      <c r="A45" s="37"/>
       <c r="B45" s="72"/>
       <c r="G45" s="75"/>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="37" t="s">
-        <v>33</v>
-      </c>
+      <c r="A46" s="37"/>
       <c r="B46" s="72"/>
       <c r="E46" s="17"/>
       <c r="G46" s="75"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="37" t="s">
-        <v>36</v>
-      </c>
+      <c r="A47" s="37"/>
       <c r="B47" s="72"/>
       <c r="G47" s="75"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="42" t="s">
-        <v>33</v>
-      </c>
       <c r="B48" s="72"/>
       <c r="G48" s="75"/>
     </row>
@@ -6522,17 +6548,17 @@
     <mergeCell ref="J6:K6"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B268">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+      <formula>"CH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
-      <formula>"T"</formula>
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>"JR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
-      <formula>"I"</formula>
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>"JL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
-      <formula>"F"</formula>
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6545,11 +6571,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:B14"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -6581,77 +6607,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="86" t="s">
+      <c r="A1" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="85" t="s">
+      <c r="G1" s="85"/>
+      <c r="H1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86" t="s">
+      <c r="I1" s="86"/>
+      <c r="J1" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="87" t="s">
+      <c r="K1" s="84"/>
+      <c r="L1" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="87"/>
-      <c r="N1" s="85" t="s">
+      <c r="M1" s="85"/>
+      <c r="N1" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="85"/>
-      <c r="P1" s="86" t="s">
+      <c r="O1" s="86"/>
+      <c r="P1" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="87" t="s">
+      <c r="Q1" s="84"/>
+      <c r="R1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="87"/>
-      <c r="T1" s="85" t="s">
+      <c r="S1" s="85"/>
+      <c r="T1" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="85"/>
-      <c r="V1" s="86" t="s">
+      <c r="U1" s="86"/>
+      <c r="V1" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="86"/>
-      <c r="X1" s="87" t="s">
+      <c r="W1" s="84"/>
+      <c r="X1" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="85" t="s">
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="86" t="s">
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="86"/>
+      <c r="AC1" s="84"/>
       <c r="AD1" s="45"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
       <c r="F2" s="52">
         <v>1</v>
       </c>
@@ -6760,7 +6786,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="str">
-        <f>VLOOKUP(A4,'BACKLOG + STORIES'!$B$1:$D$181,3)</f>
+        <f>VLOOKUP(A4,'BACKLOG + STORIES'!$B$1:$D$181,3,FALSE)</f>
         <v>Index</v>
       </c>
       <c r="C4" s="4">
@@ -6772,14 +6798,14 @@
       </c>
       <c r="E4" s="6">
         <f t="shared" ref="E4:E22" si="1">IF(D4&gt;C4,$D4-(SUM($F4:$AC4)),$C4-(SUM($F4:$AC4)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="54"/>
       <c r="G4" s="55"/>
       <c r="H4" s="62"/>
       <c r="I4" s="61"/>
       <c r="J4" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" s="66"/>
       <c r="L4" s="55"/>
@@ -6806,7 +6832,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C5" s="8">
         <v>2</v>
@@ -6817,14 +6843,14 @@
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="52"/>
       <c r="H5" s="61"/>
       <c r="I5" s="61"/>
       <c r="J5" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="67"/>
       <c r="L5" s="57"/>
@@ -6851,7 +6877,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C6" s="8">
         <v>2</v>
@@ -6862,15 +6888,13 @@
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="56"/>
       <c r="G6" s="52"/>
       <c r="H6" s="61"/>
       <c r="I6" s="61"/>
-      <c r="J6" s="50">
-        <v>2</v>
-      </c>
+      <c r="J6" s="50"/>
       <c r="K6" s="67"/>
       <c r="L6" s="57"/>
       <c r="M6" s="52"/>
@@ -6896,7 +6920,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C7" s="8">
         <v>2</v>
@@ -6907,15 +6931,13 @@
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="52"/>
       <c r="H7" s="61"/>
       <c r="I7" s="61"/>
-      <c r="J7" s="50">
-        <v>2</v>
-      </c>
+      <c r="J7" s="50"/>
       <c r="K7" s="67"/>
       <c r="L7" s="57"/>
       <c r="M7" s="52"/>
@@ -6941,7 +6963,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C8" s="8">
         <v>2</v>
@@ -6952,16 +6974,14 @@
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="56"/>
       <c r="G8" s="52"/>
       <c r="H8" s="61"/>
       <c r="I8" s="61"/>
       <c r="J8" s="50"/>
-      <c r="K8" s="67">
-        <v>2</v>
-      </c>
+      <c r="K8" s="67"/>
       <c r="L8" s="57"/>
       <c r="M8" s="52"/>
       <c r="N8" s="61"/>
@@ -6986,7 +7006,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C9" s="8">
         <v>2</v>
@@ -6997,16 +7017,14 @@
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="56"/>
       <c r="G9" s="52"/>
       <c r="H9" s="61"/>
       <c r="I9" s="61"/>
       <c r="J9" s="50"/>
-      <c r="K9" s="67">
-        <v>2</v>
-      </c>
+      <c r="K9" s="67"/>
       <c r="L9" s="57"/>
       <c r="M9" s="52"/>
       <c r="N9" s="61"/>
@@ -7031,7 +7049,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C10" s="8">
         <v>2</v>
@@ -7042,18 +7060,14 @@
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="56"/>
       <c r="G10" s="52"/>
       <c r="H10" s="61"/>
       <c r="I10" s="61"/>
-      <c r="J10" s="50">
-        <v>1</v>
-      </c>
-      <c r="K10" s="67">
-        <v>1</v>
-      </c>
+      <c r="J10" s="50"/>
+      <c r="K10" s="67"/>
       <c r="L10" s="57"/>
       <c r="M10" s="52"/>
       <c r="N10" s="61"/>
@@ -7078,7 +7092,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C11" s="8">
         <v>1</v>
@@ -7089,16 +7103,14 @@
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="56"/>
       <c r="G11" s="52"/>
       <c r="H11" s="61"/>
       <c r="I11" s="61"/>
       <c r="J11" s="50"/>
-      <c r="K11" s="67">
-        <v>1</v>
-      </c>
+      <c r="K11" s="67"/>
       <c r="L11" s="57"/>
       <c r="M11" s="52"/>
       <c r="N11" s="61"/>
@@ -7123,7 +7135,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C12" s="8">
         <v>3</v>
@@ -7134,18 +7146,14 @@
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="56"/>
       <c r="G12" s="52"/>
       <c r="H12" s="61"/>
       <c r="I12" s="61"/>
-      <c r="J12" s="50">
-        <v>1</v>
-      </c>
-      <c r="K12" s="67">
-        <v>2</v>
-      </c>
+      <c r="J12" s="50"/>
+      <c r="K12" s="67"/>
       <c r="L12" s="57"/>
       <c r="M12" s="52"/>
       <c r="N12" s="61"/>
@@ -7170,7 +7178,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C13" s="8">
         <v>2</v>
@@ -7181,16 +7189,14 @@
       </c>
       <c r="E13" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="56"/>
       <c r="G13" s="52"/>
       <c r="H13" s="61"/>
       <c r="I13" s="61"/>
       <c r="J13" s="50"/>
-      <c r="K13" s="67">
-        <v>2</v>
-      </c>
+      <c r="K13" s="67"/>
       <c r="L13" s="57"/>
       <c r="M13" s="52"/>
       <c r="N13" s="61"/>
@@ -7215,7 +7221,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C14" s="8">
         <v>2</v>
@@ -7226,18 +7232,14 @@
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="56"/>
       <c r="G14" s="52"/>
       <c r="H14" s="61"/>
       <c r="I14" s="61"/>
-      <c r="J14" s="50">
-        <v>1</v>
-      </c>
-      <c r="K14" s="67">
-        <v>1</v>
-      </c>
+      <c r="J14" s="50"/>
+      <c r="K14" s="67"/>
       <c r="L14" s="57"/>
       <c r="M14" s="52"/>
       <c r="N14" s="61"/>
@@ -7258,19 +7260,23 @@
       <c r="AC14" s="47"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="41">
+        <v>7</v>
+      </c>
       <c r="B15" s="7" t="str">
         <f>IF(A15="","", VLOOKUP(A15,'BACKLOG + STORIES'!$B$1:$D$181,3))</f>
-        <v/>
-      </c>
-      <c r="C15" s="8"/>
+        <v>BASE DATOS</v>
+      </c>
+      <c r="C15" s="8">
+        <v>7</v>
+      </c>
       <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F15" s="56"/>
       <c r="G15" s="52"/>
@@ -10207,15 +10213,15 @@
       </c>
       <c r="C100" s="49">
         <f t="shared" ref="C100:O100" si="2">SUM(C4:C99)</f>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D100" s="47">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E100" s="47">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F100" s="58">
         <f t="shared" si="2"/>
@@ -10235,11 +10241,11 @@
       </c>
       <c r="J100" s="51">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K100" s="68">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L100" s="58">
         <f t="shared" si="2"/>
@@ -10316,44 +10322,40 @@
     </row>
     <row r="101" spans="1:29" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B101" s="28" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C101" s="10">
         <f>C100-SUM(F101:AC101)</f>
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="12"/>
-      <c r="F101" s="84">
-        <v>22</v>
-      </c>
-      <c r="G101" s="82"/>
-      <c r="H101" s="83">
-        <v>20</v>
-      </c>
-      <c r="I101" s="83"/>
-      <c r="J101" s="80">
-        <v>17</v>
-      </c>
-      <c r="K101" s="81"/>
-      <c r="L101" s="82"/>
-      <c r="M101" s="82"/>
-      <c r="N101" s="83"/>
-      <c r="O101" s="83"/>
-      <c r="P101" s="80"/>
-      <c r="Q101" s="81"/>
-      <c r="R101" s="82"/>
-      <c r="S101" s="82"/>
-      <c r="T101" s="83"/>
-      <c r="U101" s="83"/>
-      <c r="V101" s="80"/>
-      <c r="W101" s="81"/>
-      <c r="X101" s="82"/>
-      <c r="Y101" s="82"/>
-      <c r="Z101" s="83"/>
-      <c r="AA101" s="83"/>
-      <c r="AB101" s="80"/>
-      <c r="AC101" s="80"/>
+      <c r="F101" s="92"/>
+      <c r="G101" s="80"/>
+      <c r="H101" s="90"/>
+      <c r="I101" s="90"/>
+      <c r="J101" s="88">
+        <v>29</v>
+      </c>
+      <c r="K101" s="89"/>
+      <c r="L101" s="80"/>
+      <c r="M101" s="80"/>
+      <c r="N101" s="90"/>
+      <c r="O101" s="90"/>
+      <c r="P101" s="88"/>
+      <c r="Q101" s="89"/>
+      <c r="R101" s="80"/>
+      <c r="S101" s="80"/>
+      <c r="T101" s="90"/>
+      <c r="U101" s="90"/>
+      <c r="V101" s="88"/>
+      <c r="W101" s="89"/>
+      <c r="X101" s="80"/>
+      <c r="Y101" s="80"/>
+      <c r="Z101" s="90"/>
+      <c r="AA101" s="90"/>
+      <c r="AB101" s="88"/>
+      <c r="AC101" s="88"/>
     </row>
     <row r="102" spans="1:29" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B102" s="29" t="s">
@@ -10365,83 +10367,83 @@
       </c>
       <c r="E102" s="46">
         <f>C100</f>
-        <v>22</v>
-      </c>
-      <c r="F102" s="82">
+        <v>29</v>
+      </c>
+      <c r="F102" s="80">
         <f>E102-F101</f>
+        <v>29</v>
+      </c>
+      <c r="G102" s="80"/>
+      <c r="H102" s="90">
+        <f>F102-H101</f>
+        <v>29</v>
+      </c>
+      <c r="I102" s="90"/>
+      <c r="J102" s="88">
+        <f>H102-J101</f>
         <v>0</v>
       </c>
-      <c r="G102" s="82"/>
-      <c r="H102" s="83">
-        <f>F102-H101</f>
-        <v>-20</v>
-      </c>
-      <c r="I102" s="83"/>
-      <c r="J102" s="80">
-        <f>H102-J101</f>
-        <v>-37</v>
-      </c>
-      <c r="K102" s="81"/>
-      <c r="L102" s="82">
+      <c r="K102" s="89"/>
+      <c r="L102" s="80">
         <f>J102-L101</f>
-        <v>-37</v>
-      </c>
-      <c r="M102" s="82"/>
-      <c r="N102" s="83">
+        <v>0</v>
+      </c>
+      <c r="M102" s="80"/>
+      <c r="N102" s="90">
         <f>L102-N101</f>
-        <v>-37</v>
-      </c>
-      <c r="O102" s="83"/>
-      <c r="P102" s="80">
+        <v>0</v>
+      </c>
+      <c r="O102" s="90"/>
+      <c r="P102" s="88">
         <f>N102-P101</f>
-        <v>-37</v>
-      </c>
-      <c r="Q102" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="89">
         <f t="shared" ref="Q102:Y102" si="4">P102-Q101</f>
-        <v>-37</v>
-      </c>
-      <c r="R102" s="82">
+        <v>0</v>
+      </c>
+      <c r="R102" s="80">
         <f>P102-R101</f>
-        <v>-37</v>
-      </c>
-      <c r="S102" s="82">
+        <v>0</v>
+      </c>
+      <c r="S102" s="80">
         <f t="shared" si="4"/>
-        <v>-37</v>
-      </c>
-      <c r="T102" s="83">
+        <v>0</v>
+      </c>
+      <c r="T102" s="90">
         <f>R102-T101</f>
-        <v>-37</v>
-      </c>
-      <c r="U102" s="83">
+        <v>0</v>
+      </c>
+      <c r="U102" s="90">
         <f t="shared" si="4"/>
-        <v>-37</v>
-      </c>
-      <c r="V102" s="80">
+        <v>0</v>
+      </c>
+      <c r="V102" s="88">
         <f>T102-V101</f>
-        <v>-37</v>
-      </c>
-      <c r="W102" s="81">
+        <v>0</v>
+      </c>
+      <c r="W102" s="89">
         <f t="shared" si="4"/>
-        <v>-37</v>
-      </c>
-      <c r="X102" s="82">
+        <v>0</v>
+      </c>
+      <c r="X102" s="80">
         <f>V102-X101</f>
-        <v>-37</v>
-      </c>
-      <c r="Y102" s="82">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="80">
         <f t="shared" si="4"/>
-        <v>-37</v>
-      </c>
-      <c r="Z102" s="82">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="80">
         <f>X102-Z101</f>
-        <v>-37</v>
-      </c>
-      <c r="AA102" s="82"/>
-      <c r="AB102" s="80">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="80"/>
+      <c r="AB102" s="88">
         <f>Z102-AB101</f>
-        <v>-37</v>
-      </c>
-      <c r="AC102" s="80"/>
+        <v>0</v>
+      </c>
+      <c r="AC102" s="88"/>
     </row>
     <row r="103" spans="1:29" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B103" s="29" t="s">
@@ -10453,103 +10455,103 @@
       </c>
       <c r="E103" s="46">
         <f>D100</f>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F103" s="58">
         <f>$D$100-SUM(F$4:F$99)</f>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G103" s="58">
         <f t="shared" ref="G103:AC103" si="5">F103-SUM(G4:G99)</f>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H103" s="63">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I103" s="63">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J103" s="51">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="K103" s="65">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L103" s="58">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M103" s="58">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="N103" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="O103" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P103" s="51">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Q103" s="65">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="R103" s="58">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="S103" s="58">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="T103" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U103" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="V103" s="51">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="W103" s="65">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="X103" s="58">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y103" s="58">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Z103" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA103" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB103" s="51">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AC103" s="51">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:29" s="26" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -10562,140 +10564,140 @@
       </c>
       <c r="E104" s="46">
         <f>SUM(F100:AC100)</f>
-        <v>22</v>
-      </c>
-      <c r="F104" s="89">
+        <v>2</v>
+      </c>
+      <c r="F104" s="87">
         <f>(F100+G100)</f>
         <v>0</v>
       </c>
-      <c r="G104" s="89"/>
-      <c r="H104" s="89">
+      <c r="G104" s="87"/>
+      <c r="H104" s="87">
         <f>(H100+I100)</f>
         <v>0</v>
       </c>
-      <c r="I104" s="89"/>
-      <c r="J104" s="89">
+      <c r="I104" s="87"/>
+      <c r="J104" s="87">
         <f>(J100+K100)</f>
-        <v>22</v>
-      </c>
-      <c r="K104" s="89"/>
-      <c r="L104" s="89">
+        <v>2</v>
+      </c>
+      <c r="K104" s="87"/>
+      <c r="L104" s="87">
         <f>(L100+M100)</f>
         <v>0</v>
       </c>
-      <c r="M104" s="89"/>
-      <c r="N104" s="89">
+      <c r="M104" s="87"/>
+      <c r="N104" s="87">
         <f>(N100+O100)</f>
         <v>0</v>
       </c>
-      <c r="O104" s="89"/>
-      <c r="P104" s="89">
+      <c r="O104" s="87"/>
+      <c r="P104" s="87">
         <f>(P100+Q100)</f>
         <v>0</v>
       </c>
-      <c r="Q104" s="89"/>
-      <c r="R104" s="89">
+      <c r="Q104" s="87"/>
+      <c r="R104" s="87">
         <f>(R100+S100)</f>
         <v>0</v>
       </c>
-      <c r="S104" s="89"/>
-      <c r="T104" s="89">
+      <c r="S104" s="87"/>
+      <c r="T104" s="87">
         <f>(T100+U100)</f>
         <v>0</v>
       </c>
-      <c r="U104" s="89"/>
-      <c r="V104" s="89">
+      <c r="U104" s="87"/>
+      <c r="V104" s="87">
         <f>(V100+W100)</f>
         <v>0</v>
       </c>
-      <c r="W104" s="89"/>
-      <c r="X104" s="89">
+      <c r="W104" s="87"/>
+      <c r="X104" s="87">
         <f>(X100+Y100)</f>
         <v>0</v>
       </c>
-      <c r="Y104" s="89"/>
-      <c r="Z104" s="89">
+      <c r="Y104" s="87"/>
+      <c r="Z104" s="87">
         <f>(Z100+AA100)</f>
         <v>0</v>
       </c>
-      <c r="AA104" s="89"/>
-      <c r="AB104" s="89">
+      <c r="AA104" s="87"/>
+      <c r="AB104" s="87">
         <f>(AB100+AC100)</f>
         <v>0</v>
       </c>
-      <c r="AC104" s="89"/>
+      <c r="AC104" s="87"/>
     </row>
     <row r="105" spans="1:29" s="26" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B105" s="29" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C105" s="29"/>
       <c r="D105" s="30" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E105" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F105" s="91">
+        <v>34</v>
+      </c>
+      <c r="F105" s="81">
         <f>IF( F100+G100&gt;0, F100+G100/1, 0)</f>
         <v>0</v>
       </c>
-      <c r="G105" s="91"/>
-      <c r="H105" s="90">
+      <c r="G105" s="81"/>
+      <c r="H105" s="79">
         <f>IF(H104&gt;0,(F104+H104)/2,0)</f>
         <v>0</v>
       </c>
-      <c r="I105" s="90"/>
-      <c r="J105" s="88">
+      <c r="I105" s="79"/>
+      <c r="J105" s="82">
         <f>IF(J104&gt;0,(F104+H104+J104)/3,0)</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="K105" s="92"/>
-      <c r="L105" s="91">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K105" s="83"/>
+      <c r="L105" s="81">
         <f>IF(L104&gt;0,(F104+ H104+J104+L104)/4,0)</f>
         <v>0</v>
       </c>
-      <c r="M105" s="91"/>
-      <c r="N105" s="90">
+      <c r="M105" s="81"/>
+      <c r="N105" s="79">
         <f>IF(N104&gt;0,(F104+H104 +J104+L104+N104)/5,0)</f>
         <v>0</v>
       </c>
-      <c r="O105" s="90"/>
-      <c r="P105" s="88">
+      <c r="O105" s="79"/>
+      <c r="P105" s="82">
         <f>IF(P104&gt;0,(F104+H104+J104 +L104+N104+P104)/6,0)</f>
         <v>0</v>
       </c>
-      <c r="Q105" s="92"/>
-      <c r="R105" s="91">
+      <c r="Q105" s="83"/>
+      <c r="R105" s="81">
         <f>IF(R104&gt;0,(F104+H104+J104+L104 +N104+P104+R104)/7,0)</f>
         <v>0</v>
       </c>
-      <c r="S105" s="91"/>
-      <c r="T105" s="90">
+      <c r="S105" s="81"/>
+      <c r="T105" s="79">
         <f>IF(T104&gt;0,(F104+H104+J104+L104+N104+ P104+R104+T104)/8,0)</f>
         <v>0</v>
       </c>
-      <c r="U105" s="90"/>
-      <c r="V105" s="88">
+      <c r="U105" s="79"/>
+      <c r="V105" s="82">
         <f>IF(V104&gt;0,(F104+H104+J104+L104+N104+P104+ R104+T104+V104)/9,0)</f>
         <v>0</v>
       </c>
-      <c r="W105" s="92"/>
-      <c r="X105" s="91">
+      <c r="W105" s="83"/>
+      <c r="X105" s="81">
         <f>IF(X104&gt;0,(F104+H104+J104+L104+N104+P104+R104 +T104+V104+X104)/10,0)</f>
         <v>0</v>
       </c>
-      <c r="Y105" s="91"/>
-      <c r="Z105" s="90">
+      <c r="Y105" s="81"/>
+      <c r="Z105" s="79">
         <f>IF(Z104&gt;0,(F104+H104+J104+L104+N104+P104+R104+ T104+V104+X104+Z104)/11,0)</f>
         <v>0</v>
       </c>
-      <c r="AA105" s="90"/>
-      <c r="AB105" s="88">
+      <c r="AA105" s="79"/>
+      <c r="AB105" s="82">
         <f>IF(AB104&gt;0,(F104+H104+J104+L104+N104+P104+R104+T104+V104+X104+Z104)/12,0)</f>
         <v>0</v>
       </c>
-      <c r="AC105" s="88"/>
+      <c r="AC105" s="82"/>
     </row>
     <row r="106" spans="1:29" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="107" spans="1:29" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10767,19 +10769,42 @@
     <row r="173" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="Z105:AA105"/>
-    <mergeCell ref="Z102:AA102"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="L105:M105"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="R105:S105"/>
-    <mergeCell ref="T105:U105"/>
-    <mergeCell ref="V105:W105"/>
-    <mergeCell ref="X105:Y105"/>
-    <mergeCell ref="X102:Y102"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="R102:S102"/>
+    <mergeCell ref="T102:U102"/>
+    <mergeCell ref="V102:W102"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="AB102:AC102"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="R101:S101"/>
+    <mergeCell ref="T101:U101"/>
+    <mergeCell ref="V101:W101"/>
+    <mergeCell ref="X101:Y101"/>
+    <mergeCell ref="AB101:AC101"/>
+    <mergeCell ref="Z101:AA101"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
@@ -10796,242 +10821,219 @@
     <mergeCell ref="X104:Y104"/>
     <mergeCell ref="AB104:AC104"/>
     <mergeCell ref="Z104:AA104"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="AB102:AC102"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="R101:S101"/>
-    <mergeCell ref="T101:U101"/>
-    <mergeCell ref="V101:W101"/>
-    <mergeCell ref="X101:Y101"/>
-    <mergeCell ref="AB101:AC101"/>
-    <mergeCell ref="Z101:AA101"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="R102:S102"/>
-    <mergeCell ref="T102:U102"/>
-    <mergeCell ref="V102:W102"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="Z105:AA105"/>
+    <mergeCell ref="Z102:AA102"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="R105:S105"/>
+    <mergeCell ref="T105:U105"/>
+    <mergeCell ref="V105:W105"/>
+    <mergeCell ref="X105:Y105"/>
+    <mergeCell ref="X102:Y102"/>
   </mergeCells>
   <conditionalFormatting sqref="B103:I103 B102:F102 H102">
-    <cfRule type="cellIs" dxfId="41" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="65" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="cellIs" dxfId="40" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="39" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101">
-    <cfRule type="cellIs" dxfId="38" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="68" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:K99">
-    <cfRule type="cellIs" dxfId="37" priority="69" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="69" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E99">
-    <cfRule type="cellIs" dxfId="36" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
       <formula>D4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="70" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="cellIs" dxfId="34" priority="71" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="71" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101">
-    <cfRule type="cellIs" dxfId="33" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="72" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="cellIs" dxfId="32" priority="73" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="73" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="31" priority="74" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="74" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E99">
-    <cfRule type="cellIs" dxfId="30" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="75" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E99">
-    <cfRule type="cellIs" dxfId="29" priority="76" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="76" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J103:K103">
-    <cfRule type="cellIs" dxfId="28" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="63" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="cellIs" dxfId="27" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="46" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J102">
-    <cfRule type="cellIs" dxfId="26" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="50" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="25" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104:E104">
-    <cfRule type="cellIs" dxfId="24" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="45" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D105">
-    <cfRule type="cellIs" dxfId="23" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105">
-    <cfRule type="cellIs" dxfId="22" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="41" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="21" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB103:AC103">
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="23" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4:AC99">
-    <cfRule type="cellIs" dxfId="19" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB102">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="22" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L103:O103 L102 N102">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="19" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:Q99">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P103:Q103">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="18" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P102">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R103:U103 R102 T102">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="15" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:W99">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V103:W103">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V102">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X103:Y103">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4:Y99">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z103:AA103">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4:AA99">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A99">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>"T"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X102">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z102">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
